--- a/data/trans_orig/P0902-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>86833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71422</v>
+        <v>70998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106022</v>
+        <v>104805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1486512763645511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1222683768822204</v>
+        <v>0.1215418197263533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.181500638268728</v>
+        <v>0.1794169969849014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>198</v>
@@ -765,19 +765,19 @@
         <v>207058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181973</v>
+        <v>181351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>232800</v>
+        <v>232365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2244940351275679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1972969249572113</v>
+        <v>0.1966216789389078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2524030214703741</v>
+        <v>0.2519318209681235</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -786,19 +786,19 @@
         <v>293892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>263650</v>
+        <v>262381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>325952</v>
+        <v>326010</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1950857081782336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1750109864087471</v>
+        <v>0.1741690853111927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2163672187871798</v>
+        <v>0.2164061417994368</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>497308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478119</v>
+        <v>479336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>512719</v>
+        <v>513143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8513487236354489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.818499361731272</v>
+        <v>0.8205830030150986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.87773162311778</v>
+        <v>0.8784581802736467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>687</v>
@@ -836,19 +836,19 @@
         <v>715275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>689533</v>
+        <v>689968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>740360</v>
+        <v>740982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7755059648724321</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.747596978529626</v>
+        <v>0.7480681790318764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8027030750427889</v>
+        <v>0.8033783210610922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1172</v>
@@ -857,19 +857,19 @@
         <v>1212582</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1180522</v>
+        <v>1180464</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1242824</v>
+        <v>1244093</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8049142918217663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7836327812128203</v>
+        <v>0.7835938582005633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8249890135912534</v>
+        <v>0.8258309146888071</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>85513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70754</v>
+        <v>68830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105382</v>
+        <v>104310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07933382465383956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06564130221233105</v>
+        <v>0.06385612377109653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09776622063672009</v>
+        <v>0.09677201042073587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -982,19 +982,19 @@
         <v>133678</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114245</v>
+        <v>113140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156801</v>
+        <v>154726</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1264044923626671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1080294278105356</v>
+        <v>0.1069838805542219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.148270104151904</v>
+        <v>0.1463073473530443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -1003,19 +1003,19 @@
         <v>219191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>192215</v>
+        <v>194960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248433</v>
+        <v>247893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1026448076787586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09001201875175939</v>
+        <v>0.09129764733782993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1163385938220493</v>
+        <v>0.1160854994679534</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>992381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>972512</v>
+        <v>973584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1007140</v>
+        <v>1009064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9206661753461605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9022337793632799</v>
+        <v>0.9032279895792642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9343586977876691</v>
+        <v>0.9361438762289038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>900</v>
@@ -1053,19 +1053,19 @@
         <v>923860</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>900737</v>
+        <v>902812</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>943293</v>
+        <v>944398</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.873595507637333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8517298958480963</v>
+        <v>0.853692652646956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8919705721894645</v>
+        <v>0.8930161194457783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1868</v>
@@ -1074,19 +1074,19 @@
         <v>1916241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1886999</v>
+        <v>1887539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1943217</v>
+        <v>1940472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8973551923212414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8836614061779507</v>
+        <v>0.8839145005320466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9099879812482407</v>
+        <v>0.9087023526621701</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>64317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50297</v>
+        <v>48513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80288</v>
+        <v>82504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05734430260151364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04484432175304081</v>
+        <v>0.04325345918769863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07158409996325139</v>
+        <v>0.07355924587701057</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>103251</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85630</v>
+        <v>84408</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125087</v>
+        <v>124985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1038803311762651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08615235879729718</v>
+        <v>0.08492309988548576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1258498808110862</v>
+        <v>0.1257466307619542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -1220,19 +1220,19 @@
         <v>167568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143920</v>
+        <v>145231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>193127</v>
+        <v>193367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07920828798876828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06803031354369779</v>
+        <v>0.06864964264330906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09128986912958659</v>
+        <v>0.09140349954240291</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1057277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1041306</v>
+        <v>1039090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1071297</v>
+        <v>1073081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9426556973984863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9284159000367486</v>
+        <v>0.9264407541229894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9551556782469592</v>
+        <v>0.9567465408123017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>882</v>
@@ -1270,19 +1270,19 @@
         <v>890689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>868853</v>
+        <v>868955</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>908310</v>
+        <v>909532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8961196688237349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8741501191889136</v>
+        <v>0.874253369238046</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9138476412027028</v>
+        <v>0.9150769001145143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1921</v>
@@ -1291,19 +1291,19 @@
         <v>1947966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1922407</v>
+        <v>1922167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1971614</v>
+        <v>1970303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9207917120112318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9087101308704134</v>
+        <v>0.9085965004575971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9319696864563023</v>
+        <v>0.9313503573566909</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>18838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11555</v>
+        <v>11586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29960</v>
+        <v>28494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04212389479373681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02583939813166302</v>
+        <v>0.02590875117521925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06699519074103888</v>
+        <v>0.06371552176378613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1416,19 +1416,19 @@
         <v>35014</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24655</v>
+        <v>24761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47087</v>
+        <v>47999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1026315215953518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07226981779162961</v>
+        <v>0.07257813200281595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1380211873779175</v>
+        <v>0.1406947191748861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1437,19 +1437,19 @@
         <v>53851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40923</v>
+        <v>40819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67141</v>
+        <v>69037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06830828719780861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05190936060005601</v>
+        <v>0.05177761113905232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08516534480756824</v>
+        <v>0.08757015381415797</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>428362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417240</v>
+        <v>418706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435645</v>
+        <v>435614</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9578761052062632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9330048092589613</v>
+        <v>0.936284478236214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9741606018683375</v>
+        <v>0.9740912488247808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -1487,19 +1487,19 @@
         <v>306144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294071</v>
+        <v>293159</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316503</v>
+        <v>316397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8973684784046482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8619788126220824</v>
+        <v>0.8593052808251129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9277301822083703</v>
+        <v>0.9274218679971834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>722</v>
@@ -1508,19 +1508,19 @@
         <v>734507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>721217</v>
+        <v>719321</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747435</v>
+        <v>747539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9316917128021914</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9148346551924318</v>
+        <v>0.9124298461858421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.948090639399944</v>
+        <v>0.9482223888609478</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>255502</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226573</v>
+        <v>225182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286915</v>
+        <v>284645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07908237316127883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07012842505237535</v>
+        <v>0.06969800107340335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08880524516479912</v>
+        <v>0.08810280246847355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>460</v>
@@ -1633,19 +1633,19 @@
         <v>479000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>437613</v>
+        <v>435167</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>520906</v>
+        <v>518432</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1444961360868019</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1320111605181924</v>
+        <v>0.1312733461624295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1571374551365483</v>
+        <v>0.1563911660242465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>719</v>
@@ -1654,19 +1654,19 @@
         <v>734502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>683249</v>
+        <v>683871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>785939</v>
+        <v>788381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1122096680612401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1043798441628371</v>
+        <v>0.1044748444930017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1200677359394351</v>
+        <v>0.1204407305435616</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2975327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2943914</v>
+        <v>2946184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3004256</v>
+        <v>3005647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9209176268387211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.911194754835201</v>
+        <v>0.9118971975315265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9298715749476247</v>
+        <v>0.9303019989265966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2774</v>
@@ -1704,19 +1704,19 @@
         <v>2835969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2794063</v>
+        <v>2796537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2877356</v>
+        <v>2879802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8555038639131981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8428625448634518</v>
+        <v>0.8436088339757536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8679888394818076</v>
+        <v>0.8687266538375705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5683</v>
@@ -1725,19 +1725,19 @@
         <v>5811296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5759859</v>
+        <v>5757417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5862549</v>
+        <v>5861927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8877903319387599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8799322640605647</v>
+        <v>0.8795592694564385</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8956201558371624</v>
+        <v>0.8955251555069983</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>127743</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107530</v>
+        <v>106163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153511</v>
+        <v>150623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1223667701081887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1030042954806542</v>
+        <v>0.1016949381618618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.147049895603116</v>
+        <v>0.144284253395448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -2090,19 +2090,19 @@
         <v>270983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240761</v>
+        <v>243299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299462</v>
+        <v>302341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2419645486452186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2149785910588276</v>
+        <v>0.2172455580282251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2673941501096755</v>
+        <v>0.2699650448761026</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>372</v>
@@ -2111,19 +2111,19 @@
         <v>398726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364652</v>
+        <v>363135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>435675</v>
+        <v>438792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1842657600257606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1685190457866917</v>
+        <v>0.1678180305340145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2013413573143508</v>
+        <v>0.2027816443358673</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>916192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>890424</v>
+        <v>893312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>936405</v>
+        <v>937772</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8776332298918113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8529501043968833</v>
+        <v>0.855715746604552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8969957045193456</v>
+        <v>0.898305061838138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>777</v>
@@ -2161,19 +2161,19 @@
         <v>848945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>820466</v>
+        <v>817587</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>879167</v>
+        <v>876629</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7580354513547813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7326058498903244</v>
+        <v>0.7300349551238975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7850214089411724</v>
+        <v>0.7827544419717749</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1637</v>
@@ -2182,19 +2182,19 @@
         <v>1765137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1728188</v>
+        <v>1725071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1799211</v>
+        <v>1800728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8157342399742394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7986586426856493</v>
+        <v>0.7972183556641329</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8314809542133083</v>
+        <v>0.8321819694659854</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>104953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83641</v>
+        <v>85786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125988</v>
+        <v>126734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1075173319509031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08568473137399431</v>
+        <v>0.08788202470015249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1290657111440863</v>
+        <v>0.1298305006840704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -2307,19 +2307,19 @@
         <v>220152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194802</v>
+        <v>194090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>247168</v>
+        <v>248627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2017361762464491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1785070168226009</v>
+        <v>0.1778544842266744</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2264927953338439</v>
+        <v>0.2278297671480102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>300</v>
@@ -2328,19 +2328,19 @@
         <v>325105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>294344</v>
+        <v>290894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>359127</v>
+        <v>358213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1572502220116907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1423714976688475</v>
+        <v>0.1407025297853595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1737062010975957</v>
+        <v>0.1732639996157181</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>871199</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>850164</v>
+        <v>849418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892511</v>
+        <v>890366</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8924826680490968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8709342888559137</v>
+        <v>0.8701694993159295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9143152686260058</v>
+        <v>0.9121179752998474</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>811</v>
@@ -2378,19 +2378,19 @@
         <v>871133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>844117</v>
+        <v>842658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>896483</v>
+        <v>897195</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7982638237535509</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7735072046661561</v>
+        <v>0.7721702328519898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8214929831773992</v>
+        <v>0.8221455157733255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1641</v>
@@ -2399,19 +2399,19 @@
         <v>1742333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1708311</v>
+        <v>1709225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1773094</v>
+        <v>1776544</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8427497779883093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8262937989024044</v>
+        <v>0.8267360003842819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8576285023311525</v>
+        <v>0.8592974702146405</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>95451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75943</v>
+        <v>78644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115200</v>
+        <v>116626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1078401813531786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08580009032313671</v>
+        <v>0.08885182342003825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1301524995504429</v>
+        <v>0.1317641741416612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -2524,19 +2524,19 @@
         <v>140516</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117980</v>
+        <v>119077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162017</v>
+        <v>164469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1604435948938814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1347117266795833</v>
+        <v>0.1359645975084864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.184994397608255</v>
+        <v>0.1877941642924169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -2545,19 +2545,19 @@
         <v>235967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208597</v>
+        <v>210327</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267307</v>
+        <v>267952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1340026907435901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1184599504489058</v>
+        <v>0.1194421354758866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1518003714860272</v>
+        <v>0.1521666726789441</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>789664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>769915</v>
+        <v>768489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>809172</v>
+        <v>806471</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8921598186468215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8698475004495572</v>
+        <v>0.8682358258583388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9141999096768635</v>
+        <v>0.9111481765799614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -2595,19 +2595,19 @@
         <v>735280</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713779</v>
+        <v>711327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757816</v>
+        <v>756719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8395564051061186</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8150056023917451</v>
+        <v>0.8122058357075831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8652882733204169</v>
+        <v>0.864035402491514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1434</v>
@@ -2616,19 +2616,19 @@
         <v>1524944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1493604</v>
+        <v>1492959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1552314</v>
+        <v>1550584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8659973092564099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8481996285139729</v>
+        <v>0.847833327321056</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8815400495510943</v>
+        <v>0.8805578645241134</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>45071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33027</v>
+        <v>32984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60924</v>
+        <v>59366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08960032850184958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06565792944470314</v>
+        <v>0.06557204348097942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1211156963466014</v>
+        <v>0.1180190081412007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2741,19 +2741,19 @@
         <v>70584</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54625</v>
+        <v>55100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87084</v>
+        <v>87412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1562404155006888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1209145611764649</v>
+        <v>0.1219654295840761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1927626582191045</v>
+        <v>0.1934899377857114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -2762,19 +2762,19 @@
         <v>115655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94518</v>
+        <v>96489</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136599</v>
+        <v>140014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1211316559696017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0989940197205544</v>
+        <v>0.1010577476990331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1430668455375043</v>
+        <v>0.1466439377340402</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>457952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>442099</v>
+        <v>443657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>469996</v>
+        <v>470039</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9103996714981504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8788843036533985</v>
+        <v>0.8819809918587991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9343420705552968</v>
+        <v>0.9344279565190204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>348</v>
@@ -2812,19 +2812,19 @@
         <v>381183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364683</v>
+        <v>364355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397142</v>
+        <v>396667</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8437595844993112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8072373417808955</v>
+        <v>0.8065100622142886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.879085438823535</v>
+        <v>0.8780345704159239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>769</v>
@@ -2833,19 +2833,19 @@
         <v>839134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>818190</v>
+        <v>814775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>860271</v>
+        <v>858300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8788683440303983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8569331544624956</v>
+        <v>0.8533560622659597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9010059802794455</v>
+        <v>0.8989422523009669</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>373218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>339273</v>
+        <v>333506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>412424</v>
+        <v>410741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1095051544145551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09954533906631005</v>
+        <v>0.09785322669031618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1210085363983398</v>
+        <v>0.120514691091983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>652</v>
@@ -2958,19 +2958,19 @@
         <v>702235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>656643</v>
+        <v>655285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>749063</v>
+        <v>752107</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1984399948759335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1855564648636604</v>
+        <v>0.1851728261742628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2116729078952135</v>
+        <v>0.2125331055980455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>992</v>
@@ -2979,19 +2979,19 @@
         <v>1075453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1017755</v>
+        <v>1011166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1144889</v>
+        <v>1138381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1548082288085023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1465027807629651</v>
+        <v>0.1455542543250848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1648033217065884</v>
+        <v>0.1638665796506939</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3035007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2995801</v>
+        <v>2997484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3068952</v>
+        <v>3074719</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8904948455854449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8789914636016603</v>
+        <v>0.879485308908017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.90045466093369</v>
+        <v>0.9021467733096838</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2629</v>
@@ -3029,19 +3029,19 @@
         <v>2836541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2789713</v>
+        <v>2786669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2882133</v>
+        <v>2883491</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8015600051240666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7883270921047869</v>
+        <v>0.7874668944019544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8144435351363397</v>
+        <v>0.8148271738257372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5481</v>
@@ -3050,19 +3050,19 @@
         <v>5871548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5802112</v>
+        <v>5808620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5929246</v>
+        <v>5935835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8451917711914978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8351966782934117</v>
+        <v>0.836133420349306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8534972192370349</v>
+        <v>0.8544457456749152</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>134254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114462</v>
+        <v>114117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156085</v>
+        <v>156211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1190197114910991</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1014737696772827</v>
+        <v>0.1011680531414074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1383736362694788</v>
+        <v>0.1384850463166713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -3415,19 +3415,19 @@
         <v>273374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242222</v>
+        <v>243099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303750</v>
+        <v>304744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2170394019598082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1923063145530283</v>
+        <v>0.1930032512151743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2411550900996786</v>
+        <v>0.2419449171716382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>369</v>
@@ -3436,19 +3436,19 @@
         <v>407628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>374320</v>
+        <v>372413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>450273</v>
+        <v>448248</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1707301858712692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1567795209101817</v>
+        <v>0.1559807795895423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1885916042555885</v>
+        <v>0.1877433538598469</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>993743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>971912</v>
+        <v>971786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1013535</v>
+        <v>1013880</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8809802885089009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8616263637305211</v>
+        <v>0.8615149536833286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8985262303227172</v>
+        <v>0.8988319468585926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>950</v>
@@ -3486,19 +3486,19 @@
         <v>986187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>955811</v>
+        <v>954817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1017339</v>
+        <v>1016462</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7829605980401918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7588449099003214</v>
+        <v>0.7580550828283619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.807693685446972</v>
+        <v>0.8069967487848256</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1885</v>
@@ -3507,19 +3507,19 @@
         <v>1979930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1937285</v>
+        <v>1939310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2013238</v>
+        <v>2015145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8292698141287308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8114083957444119</v>
+        <v>0.812256646140153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8432204790898185</v>
+        <v>0.844019220410458</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>72063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56660</v>
+        <v>57452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89789</v>
+        <v>90424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07929265360289808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06234448715358888</v>
+        <v>0.06321571519511689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.098796464408798</v>
+        <v>0.0994954604096335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -3632,19 +3632,19 @@
         <v>153311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128123</v>
+        <v>130483</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177978</v>
+        <v>179605</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1523246985644379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1272990276774193</v>
+        <v>0.1296436991291004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768331961325035</v>
+        <v>0.1784490941466757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -3653,19 +3653,19 @@
         <v>225374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198058</v>
+        <v>199134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257405</v>
+        <v>258552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1176704253454079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1034082204037747</v>
+        <v>0.1039700755579886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1343943156889758</v>
+        <v>0.134993110106846</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>836762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>819036</v>
+        <v>818401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>852165</v>
+        <v>851373</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9207073463971019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9012035355912023</v>
+        <v>0.9005045395903666</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9376555128464115</v>
+        <v>0.9367842848048832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>817</v>
@@ -3703,19 +3703,19 @@
         <v>853164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>828497</v>
+        <v>826870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>878352</v>
+        <v>875992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8476753014355621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8231668038674965</v>
+        <v>0.8215509058533244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8727009723225808</v>
+        <v>0.8703563008708997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1626</v>
@@ -3724,19 +3724,19 @@
         <v>1689926</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1657895</v>
+        <v>1656748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1717242</v>
+        <v>1716166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8823295746545922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8656056843110241</v>
+        <v>0.8650068898931544</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8965917795962252</v>
+        <v>0.8960299244420116</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>56293</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41809</v>
+        <v>43138</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71533</v>
+        <v>72598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06833696043845874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05075340611183018</v>
+        <v>0.05236779216838187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08683676039641144</v>
+        <v>0.08813043932221629</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -3849,19 +3849,19 @@
         <v>126913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104555</v>
+        <v>105034</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148242</v>
+        <v>150066</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1645951576814589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.135599137555528</v>
+        <v>0.1362200606375785</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1922578821602219</v>
+        <v>0.1946227547712644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -3870,19 +3870,19 @@
         <v>183206</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159756</v>
+        <v>155731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213252</v>
+        <v>212856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.11487563793706</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1001720470197924</v>
+        <v>0.09764803912543721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1337155584441643</v>
+        <v>0.1334670464580449</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>767466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752226</v>
+        <v>751161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>781950</v>
+        <v>780621</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9316630395615413</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9131632396035886</v>
+        <v>0.9118695606777838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9492465938881699</v>
+        <v>0.9476322078316182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -3920,19 +3920,19 @@
         <v>644146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622817</v>
+        <v>620993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>666504</v>
+        <v>666025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8354048423185411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8077421178397781</v>
+        <v>0.8053772452287357</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8644008624444719</v>
+        <v>0.8637799393624216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1351</v>
@@ -3941,19 +3941,19 @@
         <v>1411612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1381566</v>
+        <v>1381962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1435062</v>
+        <v>1439087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.88512436206294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8662844415558358</v>
+        <v>0.8665329535419551</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8998279529802076</v>
+        <v>0.9023519608745627</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>45552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33250</v>
+        <v>33596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60657</v>
+        <v>61067</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08989884133891912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06562116024542951</v>
+        <v>0.066302630232819</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1197093580004772</v>
+        <v>0.1205181925658415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -4066,19 +4066,19 @@
         <v>69001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53380</v>
+        <v>53435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88039</v>
+        <v>88528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.140904706555806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090063890263164</v>
+        <v>0.109118069379148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.17978237259153</v>
+        <v>0.1807815382474318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -4087,19 +4087,19 @@
         <v>114552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94167</v>
+        <v>92645</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137970</v>
+        <v>136314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.114966571270629</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09450725578154302</v>
+        <v>0.09298003934635495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.138469014092732</v>
+        <v>0.1368071564596935</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>461149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>446044</v>
+        <v>445634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>473451</v>
+        <v>473105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9101011586610809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8802906419995228</v>
+        <v>0.8794818074341585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9343788397545705</v>
+        <v>0.933697369767181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -4137,19 +4137,19 @@
         <v>420697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>401659</v>
+        <v>401170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>436318</v>
+        <v>436263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.859095293444194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8202176274084696</v>
+        <v>0.8192184617525683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8909936109736833</v>
+        <v>0.8908819306208521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>828</v>
@@ -4158,19 +4158,19 @@
         <v>881846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>858428</v>
+        <v>860084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>902231</v>
+        <v>903753</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.885033428729371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8615309859072682</v>
+        <v>0.8631928435403065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.905492744218457</v>
+        <v>0.9070199606536449</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>308162</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>273955</v>
+        <v>272580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342218</v>
+        <v>344351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09151655312870947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08135803360070368</v>
+        <v>0.08094953058202287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1016304303593954</v>
+        <v>0.1022638890029097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>536</v>
@@ -4283,19 +4283,19 @@
         <v>622599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>575627</v>
+        <v>577419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>672632</v>
+        <v>672759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1765339499032915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1632153756422698</v>
+        <v>0.1637236085897464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1907205066793173</v>
+        <v>0.19075665317975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>837</v>
@@ -4304,19 +4304,19 @@
         <v>930761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>871703</v>
+        <v>870101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>999346</v>
+        <v>989542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1350087869899313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.126442296079715</v>
+        <v>0.1262099142627146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1449571663817113</v>
+        <v>0.1435351254656224</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3059120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3025064</v>
+        <v>3022931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3093327</v>
+        <v>3094702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9084834468712906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8983695696406045</v>
+        <v>0.8977361109970904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9186419663992964</v>
+        <v>0.9190504694179773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2786</v>
@@ -4354,19 +4354,19 @@
         <v>2904193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2854160</v>
+        <v>2854033</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2951165</v>
+        <v>2949373</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8234660500967085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8092794933206827</v>
+        <v>0.80924334682025</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8367846243577302</v>
+        <v>0.8362763914102536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5690</v>
@@ -4375,19 +4375,19 @@
         <v>5963314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5894729</v>
+        <v>5904533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6022372</v>
+        <v>6023974</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8649912130100686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8550428336182886</v>
+        <v>0.8564648745343777</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8735577039202849</v>
+        <v>0.8737900857372853</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>121208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101342</v>
+        <v>102446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141699</v>
+        <v>141855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.244059922890151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2040595104408685</v>
+        <v>0.2062806657570843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2853189111999245</v>
+        <v>0.2856336043943955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -4740,19 +4740,19 @@
         <v>198887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>177684</v>
+        <v>179579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218336</v>
+        <v>220275</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3192736650150874</v>
+        <v>0.3192736650150873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2852361079468267</v>
+        <v>0.288279157034143</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3504945228082598</v>
+        <v>0.3536070708069946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>446</v>
@@ -4761,19 +4761,19 @@
         <v>320095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290037</v>
+        <v>292833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347949</v>
+        <v>350291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2859094109387946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.259061541594714</v>
+        <v>0.2615584531703599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3107884718889181</v>
+        <v>0.3128800124212833</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>375424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354933</v>
+        <v>354777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395290</v>
+        <v>394186</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7559400771098491</v>
+        <v>0.755940077109849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7146810888000754</v>
+        <v>0.7143663956056039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7959404895591315</v>
+        <v>0.7937193342429153</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>544</v>
@@ -4811,19 +4811,19 @@
         <v>424049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>404600</v>
+        <v>402661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>445252</v>
+        <v>443357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6807263349849126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.64950547719174</v>
+        <v>0.6463929291930052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7147638920531733</v>
+        <v>0.7117208429658567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>867</v>
@@ -4832,19 +4832,19 @@
         <v>799474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>771620</v>
+        <v>769278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>829532</v>
+        <v>826736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7140905890612056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6892115281110829</v>
+        <v>0.6871199875787167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7409384584052863</v>
+        <v>0.7384415468296404</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>133953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114005</v>
+        <v>112960</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156657</v>
+        <v>154192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1395145377762799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1187385895947536</v>
+        <v>0.1176498027171392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1631608269956843</v>
+        <v>0.1605933182408358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -4957,19 +4957,19 @@
         <v>252294</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>228799</v>
+        <v>230263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276763</v>
+        <v>276736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2261002803972132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2050451447353358</v>
+        <v>0.2063565219816288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2480288561053932</v>
+        <v>0.2480050420117143</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>573</v>
@@ -4978,19 +4978,19 @@
         <v>386247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>354312</v>
+        <v>352013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>417209</v>
+        <v>418801</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1860546598153631</v>
+        <v>0.186054659815363</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1706715542743838</v>
+        <v>0.169564425895197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2009692301903468</v>
+        <v>0.2017360309262132</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>826184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>803480</v>
+        <v>805945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>846132</v>
+        <v>847177</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8604854622237201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8368391730043155</v>
+        <v>0.8394066817591642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8812614104052464</v>
+        <v>0.8823501972828612</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1186</v>
@@ -5028,19 +5028,19 @@
         <v>863555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>839086</v>
+        <v>839113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>887050</v>
+        <v>885586</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7738997196027867</v>
+        <v>0.7738997196027866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7519711438946067</v>
+        <v>0.7519949579882858</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7949548552646643</v>
+        <v>0.7936434780183713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1944</v>
@@ -5049,19 +5049,19 @@
         <v>1689739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1658777</v>
+        <v>1657185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1721674</v>
+        <v>1723973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8139453401846369</v>
+        <v>0.8139453401846368</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7990307698096532</v>
+        <v>0.7982639690737864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.829328445725616</v>
+        <v>0.8304355741048027</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>91041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74983</v>
+        <v>72851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110814</v>
+        <v>109700</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08699779142716334</v>
+        <v>0.08699779142716332</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07165301836237523</v>
+        <v>0.06961533068962823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1058919522349956</v>
+        <v>0.104827993813756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -5174,19 +5174,19 @@
         <v>155847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138353</v>
+        <v>138551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175335</v>
+        <v>175559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1487599737977565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1320611266283865</v>
+        <v>0.1322501519927894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1673617040108854</v>
+        <v>0.1675758248157947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>360</v>
@@ -5195,19 +5195,19 @@
         <v>246889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221567</v>
+        <v>220720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>276787</v>
+        <v>272821</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1178960233901158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1058044384638436</v>
+        <v>0.1053996136752188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1321735418032499</v>
+        <v>0.1302794552956903</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>955438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>935665</v>
+        <v>936779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>971496</v>
+        <v>973628</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9130022085728368</v>
+        <v>0.9130022085728366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8941080477650043</v>
+        <v>0.8951720061862442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9283469816376249</v>
+        <v>0.9303846693103718</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1260</v>
@@ -5245,19 +5245,19 @@
         <v>891795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>872307</v>
+        <v>872083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>909289</v>
+        <v>909091</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8512400262022435</v>
+        <v>0.8512400262022436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8326382959891145</v>
+        <v>0.8324241751842052</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8679388733716136</v>
+        <v>0.8677498480072107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2185</v>
@@ -5266,19 +5266,19 @@
         <v>1847232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1817334</v>
+        <v>1821300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1872554</v>
+        <v>1873401</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.882103976609884</v>
+        <v>0.8821039766098842</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.86782645819675</v>
+        <v>0.8697205447043097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8941955615361561</v>
+        <v>0.8946003863247812</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>88934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71040</v>
+        <v>72915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109241</v>
+        <v>108170</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09122874656370313</v>
+        <v>0.09122874656370311</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07287263520248491</v>
+        <v>0.07479612120207933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1120597190610632</v>
+        <v>0.1109602968617499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -5391,19 +5391,19 @@
         <v>118601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103058</v>
+        <v>101818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136881</v>
+        <v>137764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1306753513798733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1135507696892098</v>
+        <v>0.1121836738640136</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1508172678698362</v>
+        <v>0.1517893086108069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -5412,19 +5412,19 @@
         <v>207535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185029</v>
+        <v>184994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232319</v>
+        <v>236568</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1102474056595423</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0982915273477816</v>
+        <v>0.09827293241790125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1234133079050413</v>
+        <v>0.1256706455754218</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>885916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>865609</v>
+        <v>866680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>903810</v>
+        <v>901935</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9087712534362969</v>
+        <v>0.9087712534362968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8879402809389368</v>
+        <v>0.8890397031382502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.927127364797515</v>
+        <v>0.9252038787979204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1132</v>
@@ -5462,19 +5462,19 @@
         <v>788996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770716</v>
+        <v>769833</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804539</v>
+        <v>805779</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8693246486201267</v>
+        <v>0.8693246486201266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8491827321301638</v>
+        <v>0.848210691389193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8864492303107903</v>
+        <v>0.8878163261359862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1980</v>
@@ -5483,19 +5483,19 @@
         <v>1674913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1650129</v>
+        <v>1645880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1697419</v>
+        <v>1697454</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8897525943404577</v>
+        <v>0.8897525943404576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8765866920949584</v>
+        <v>0.874329354424578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9017084726522184</v>
+        <v>0.9017270675820986</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>435137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>397831</v>
+        <v>396958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>481317</v>
+        <v>479106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1251076729216698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1143818392296609</v>
+        <v>0.1141307180165497</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1383850863852365</v>
+        <v>0.1377494004783441</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1180</v>
@@ -5608,19 +5608,19 @@
         <v>725629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>684513</v>
+        <v>688161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>769588</v>
+        <v>767336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1964331143986325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1853027472557055</v>
+        <v>0.1862904053448442</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2083331249333967</v>
+        <v>0.2077235356823341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1663</v>
@@ -5629,19 +5629,19 @@
         <v>1160766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1102696</v>
+        <v>1104307</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1220443</v>
+        <v>1217615</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1618440653775912</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1537474659316042</v>
+        <v>0.1539720886471186</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1701648644716033</v>
+        <v>0.1697704968154686</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3042962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2996782</v>
+        <v>2998993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3080268</v>
+        <v>3081141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8748923270783303</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8616149136147633</v>
+        <v>0.8622505995216565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8856181607703386</v>
+        <v>0.8858692819834508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4122</v>
@@ -5679,19 +5679,19 @@
         <v>2968395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2924436</v>
+        <v>2926688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3009511</v>
+        <v>3005863</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8035668856013674</v>
+        <v>0.8035668856013675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7916668750666032</v>
+        <v>0.7922764643176659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8146972527442942</v>
+        <v>0.8137095946551558</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6976</v>
@@ -5700,19 +5700,19 @@
         <v>6011357</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5951680</v>
+        <v>5954508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6069427</v>
+        <v>6067816</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8381559346224089</v>
+        <v>0.838155934622409</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.829835135528397</v>
+        <v>0.8302295031845314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8462525340683958</v>
+        <v>0.8460279113528815</v>
       </c>
     </row>
     <row r="18">
